--- a/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35720</v>
+        <v>36097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59874</v>
+        <v>60663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1470774422028514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1120289045362864</v>
+        <v>0.1132103728907273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1877826009295689</v>
+        <v>0.1902588491833734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -762,19 +762,19 @@
         <v>73689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62544</v>
+        <v>62741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86337</v>
+        <v>86991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2331483567873368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1978858383342102</v>
+        <v>0.1985083257382826</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2731662690402065</v>
+        <v>0.275236382010798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>192</v>
@@ -783,19 +783,19 @@
         <v>120584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103668</v>
+        <v>104406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137341</v>
+        <v>137070</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1899241499964485</v>
+        <v>0.1899241499964484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1632812962537853</v>
+        <v>0.1644431498503162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2163163499649527</v>
+        <v>0.2158894745006578</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>271950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258971</v>
+        <v>258182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283125</v>
+        <v>282748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8529225577971487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8122173990704312</v>
+        <v>0.8097411508166267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8879710954637137</v>
+        <v>0.8867896271092727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -833,19 +833,19 @@
         <v>242372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229724</v>
+        <v>229070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253517</v>
+        <v>253320</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7668516432126632</v>
+        <v>0.7668516432126633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7268337309597932</v>
+        <v>0.7247636179892019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8021141616657896</v>
+        <v>0.8014916742617174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -854,19 +854,19 @@
         <v>514322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>497565</v>
+        <v>497836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531238</v>
+        <v>530500</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8100758500035516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7836836500350471</v>
+        <v>0.7841105254993423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8367187037462145</v>
+        <v>0.8355568501496837</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>105642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85279</v>
+        <v>85697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127637</v>
+        <v>129896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1990809491579274</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1607077792640166</v>
+        <v>0.1614950058820397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.240531056259802</v>
+        <v>0.244788841875908</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>283</v>
@@ -979,19 +979,19 @@
         <v>206498</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>185453</v>
+        <v>186273</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>228675</v>
+        <v>227000</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3778593591147126</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3393511079681409</v>
+        <v>0.3408516109384794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4184410000885082</v>
+        <v>0.4153744621602694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>367</v>
@@ -1000,19 +1000,19 @@
         <v>312140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>279127</v>
+        <v>281302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345038</v>
+        <v>344190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2897852843433038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2591367202155759</v>
+        <v>0.2611564735644681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3203275346191368</v>
+        <v>0.3195402963960973</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>425005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403010</v>
+        <v>400751</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445368</v>
+        <v>444950</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8009190508420725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7594689437401981</v>
+        <v>0.7552111581240919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8392922207359832</v>
+        <v>0.8385049941179602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>434</v>
@@ -1050,19 +1050,19 @@
         <v>339996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317819</v>
+        <v>319494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>361041</v>
+        <v>360221</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6221406408852873</v>
+        <v>0.6221406408852874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5815589999114917</v>
+        <v>0.5846255378397306</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6606488920318585</v>
+        <v>0.6591483890615204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>732</v>
@@ -1071,19 +1071,19 @@
         <v>765001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732103</v>
+        <v>732951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>798014</v>
+        <v>795839</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7102147156566964</v>
+        <v>0.7102147156566962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.679672465380863</v>
+        <v>0.6804597036039027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.740863279784424</v>
+        <v>0.7388435264355319</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>84418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69334</v>
+        <v>71806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98150</v>
+        <v>100008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2671505178857606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2194153905170836</v>
+        <v>0.2272386469802295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3106073108211044</v>
+        <v>0.31648943086072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>252</v>
@@ -1196,19 +1196,19 @@
         <v>152114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136432</v>
+        <v>137346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168662</v>
+        <v>167139</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4268304937484577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3828265577059212</v>
+        <v>0.3853917270616593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4732634524381055</v>
+        <v>0.4689897238534548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -1217,19 +1217,19 @@
         <v>236532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>214752</v>
+        <v>216501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258267</v>
+        <v>259281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3517862991016536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3193939222934483</v>
+        <v>0.3219940972136003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3841112078496916</v>
+        <v>0.385619199675173</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>231575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217843</v>
+        <v>215985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>246659</v>
+        <v>244187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7328494821142395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6893926891788956</v>
+        <v>0.6835105691392802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7805846094829164</v>
+        <v>0.7727613530197712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -1267,19 +1267,19 @@
         <v>204267</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187719</v>
+        <v>189242</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>219949</v>
+        <v>219035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5731695062515422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5267365475618941</v>
+        <v>0.5310102761465448</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6171734422940774</v>
+        <v>0.6146082729383407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>531</v>
@@ -1288,19 +1288,19 @@
         <v>435843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>414108</v>
+        <v>413094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457623</v>
+        <v>455874</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6482137008983465</v>
+        <v>0.6482137008983464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6158887921503086</v>
+        <v>0.6143808003248271</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6806060777065519</v>
+        <v>0.6780059027863997</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>64487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49782</v>
+        <v>49456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83849</v>
+        <v>81025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.172819930160011</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1334110769242805</v>
+        <v>0.1325376598050849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.224709923095123</v>
+        <v>0.2171408343347527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -1413,19 +1413,19 @@
         <v>155130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139007</v>
+        <v>137429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174559</v>
+        <v>175119</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3676408988993828</v>
+        <v>0.3676408988993829</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3294309206342406</v>
+        <v>0.3256904746217228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4136862999164816</v>
+        <v>0.41501153604414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>323</v>
@@ -1434,19 +1434,19 @@
         <v>219617</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>195377</v>
+        <v>194630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245256</v>
+        <v>244369</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2762110058805995</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2457237356238897</v>
+        <v>0.2447849400270742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3084566327244055</v>
+        <v>0.3073414852603345</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>308658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>289296</v>
+        <v>292120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>323363</v>
+        <v>323689</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.827180069839989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7752900769048772</v>
+        <v>0.7828591656652475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8665889230757194</v>
+        <v>0.8674623401949151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -1484,19 +1484,19 @@
         <v>266831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247402</v>
+        <v>246842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282954</v>
+        <v>284532</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6323591011006172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5863137000835185</v>
+        <v>0.58498846395586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6705690793657598</v>
+        <v>0.6743095253782772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -1505,19 +1505,19 @@
         <v>575490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>549851</v>
+        <v>550738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>599730</v>
+        <v>600477</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7237889941194005</v>
+        <v>0.7237889941194003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6915433672755944</v>
+        <v>0.6926585147396657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7542762643761103</v>
+        <v>0.7552150599729258</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>38206</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29880</v>
+        <v>29785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48412</v>
+        <v>47699</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1857667452962618</v>
+        <v>0.1857667452962617</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1452855798744692</v>
+        <v>0.1448250986952256</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2353934331624652</v>
+        <v>0.2319240118844917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1630,19 +1630,19 @@
         <v>84295</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73721</v>
+        <v>73957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95112</v>
+        <v>94661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3682338441525976</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3220407489457415</v>
+        <v>0.3230709508489381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4154850777759027</v>
+        <v>0.4135168035295398</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>248</v>
@@ -1651,19 +1651,19 @@
         <v>122501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108984</v>
+        <v>109253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137648</v>
+        <v>136465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2818818601027162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2507799924414215</v>
+        <v>0.2513970377513805</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3167362527648148</v>
+        <v>0.3140148904840461</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>167459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157253</v>
+        <v>157966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175785</v>
+        <v>175880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8142332547037382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7646065668375349</v>
+        <v>0.7680759881155084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8547144201255309</v>
+        <v>0.8551749013047744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>305</v>
@@ -1701,19 +1701,19 @@
         <v>144623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133806</v>
+        <v>134257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155197</v>
+        <v>154961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6317661558474024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5845149222240973</v>
+        <v>0.5864831964704603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6779592510542586</v>
+        <v>0.6769290491510621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -1722,19 +1722,19 @@
         <v>312081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296934</v>
+        <v>298117</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325598</v>
+        <v>325329</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.718118139897284</v>
+        <v>0.7181181398972839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6832637472351855</v>
+        <v>0.6859851095159538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7492200075585789</v>
+        <v>0.7486029622486194</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>87961</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74124</v>
+        <v>74294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101503</v>
+        <v>101116</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3249318118465236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2738176867678093</v>
+        <v>0.2744434856830023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3749550599675875</v>
+        <v>0.3735267122655373</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>243</v>
@@ -1847,19 +1847,19 @@
         <v>121754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108204</v>
+        <v>109740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133367</v>
+        <v>133427</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4616265244475625</v>
+        <v>0.4616265244475622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.410252213175013</v>
+        <v>0.4160743359102605</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.505656995667174</v>
+        <v>0.5058842049148924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>384</v>
@@ -1868,19 +1868,19 @@
         <v>209715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189975</v>
+        <v>191422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>228908</v>
+        <v>229354</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3923895344661781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3554548899373799</v>
+        <v>0.3581613245432094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4283003683079908</v>
+        <v>0.4291340760744423</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>182746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169204</v>
+        <v>169591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196583</v>
+        <v>196413</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6750681881534762</v>
+        <v>0.6750681881534765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6250449400324123</v>
+        <v>0.6264732877344629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7261823132321905</v>
+        <v>0.7255565143169979</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>217</v>
@@ -1918,19 +1918,19 @@
         <v>141996</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130383</v>
+        <v>130323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155546</v>
+        <v>154010</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5383734755524376</v>
+        <v>0.5383734755524374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.494343004332826</v>
+        <v>0.4941157950851074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5897477868249871</v>
+        <v>0.5839256640897393</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>447</v>
@@ -1939,19 +1939,19 @@
         <v>324742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>305549</v>
+        <v>305103</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>344482</v>
+        <v>343035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6076104655338219</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5716996316920092</v>
+        <v>0.5708659239255577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6445451100626204</v>
+        <v>0.6418386754567906</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>229516</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>201923</v>
+        <v>202152</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258345</v>
+        <v>259614</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3189114577067088</v>
+        <v>0.3189114577067089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2805707240714777</v>
+        <v>0.2808886212856916</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3589683800216126</v>
+        <v>0.3607317777321217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>565</v>
@@ -2064,19 +2064,19 @@
         <v>446649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>422557</v>
+        <v>420913</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>472301</v>
+        <v>471544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5785180148966907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5473130832489238</v>
+        <v>0.545183826214528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6117440245309947</v>
+        <v>0.6107628902094623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>770</v>
@@ -2085,19 +2085,19 @@
         <v>676165</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>636586</v>
+        <v>633157</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>717262</v>
+        <v>715975</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4532716594229757</v>
+        <v>0.4532716594229758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4267391421969719</v>
+        <v>0.4244409431789808</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4808209796567969</v>
+        <v>0.4799584457750162</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>490171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>461342</v>
+        <v>460073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>517764</v>
+        <v>517535</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6810885422932913</v>
+        <v>0.6810885422932912</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6410316199783874</v>
+        <v>0.6392682222678784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7194292759285222</v>
+        <v>0.7191113787143085</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>395</v>
@@ -2135,19 +2135,19 @@
         <v>325408</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299756</v>
+        <v>300513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>349500</v>
+        <v>351144</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4214819851033091</v>
+        <v>0.4214819851033092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3882559754690055</v>
+        <v>0.3892371097905377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4526869167510761</v>
+        <v>0.4548161737854721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>789</v>
@@ -2156,19 +2156,19 @@
         <v>815579</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>774482</v>
+        <v>775769</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>855158</v>
+        <v>858587</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5467283405770242</v>
+        <v>0.5467283405770244</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.519179020343203</v>
+        <v>0.5200415542249838</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.573260857803028</v>
+        <v>0.5755590568210192</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>152110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130902</v>
+        <v>129733</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>174888</v>
+        <v>173956</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1905964993589843</v>
+        <v>0.1905964993589842</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.164022584031033</v>
+        <v>0.1625574764893394</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2191387075560163</v>
+        <v>0.217970087701336</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>399</v>
@@ -2281,19 +2281,19 @@
         <v>275232</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>251527</v>
+        <v>251851</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>297484</v>
+        <v>299512</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3310743151844032</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3025593469563213</v>
+        <v>0.3029488386869812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3578409396583241</v>
+        <v>0.3602798106757107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>573</v>
@@ -2302,19 +2302,19 @@
         <v>427342</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>394412</v>
+        <v>393972</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>461095</v>
+        <v>460203</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2622691312944713</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2420593621632081</v>
+        <v>0.2417892630070112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2829842083439439</v>
+        <v>0.2824368339198918</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>645962</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>623184</v>
+        <v>624116</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>667170</v>
+        <v>668339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8094035006410156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7808612924439836</v>
+        <v>0.7820299122986637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8359774159689669</v>
+        <v>0.8374425235106606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>663</v>
@@ -2352,19 +2352,19 @@
         <v>556099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>533847</v>
+        <v>531819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>579804</v>
+        <v>579480</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6689256848155969</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.642159060341676</v>
+        <v>0.6397201893242892</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6974406530436786</v>
+        <v>0.6970511613130187</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1251</v>
@@ -2373,19 +2373,19 @@
         <v>1202061</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1168308</v>
+        <v>1169200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1234991</v>
+        <v>1235431</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7377308687055287</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.717015791656056</v>
+        <v>0.7175631660801082</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7579406378367919</v>
+        <v>0.7582107369929888</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>809235</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2290657065499866</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2325</v>
@@ -2498,19 +2498,19 @@
         <v>1515362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4055073583044776</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3222</v>
@@ -2519,19 +2519,19 @@
         <v>2324597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2723527</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2668578</v>
+        <v>2670256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2775795</v>
+        <v>2773384</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7709342934500135</v>
+        <v>0.7709342934500134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7553799965620976</v>
+        <v>0.7558550491183061</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7857293390292286</v>
+        <v>0.7850468199789581</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3042</v>
@@ -2569,19 +2569,19 @@
         <v>2221592</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2172319</v>
+        <v>2171077</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2275107</v>
+        <v>2273078</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5944926416955223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.581307387527322</v>
+        <v>0.5809749487021708</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6088132742007976</v>
+        <v>0.608270134990391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5521</v>
@@ -2590,19 +2590,19 @@
         <v>4945119</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4863020</v>
+        <v>4877900</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5022462</v>
+        <v>5025102</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6802355152789988</v>
+        <v>0.6802355152789987</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.668942161448618</v>
+        <v>0.6709891179170506</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6908745919050211</v>
+        <v>0.6912377548732523</v>
       </c>
     </row>
     <row r="30">
